--- a/output/long_desc_diff.xlsx
+++ b/output/long_desc_diff.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>codigo</t>
   </si>
@@ -576,7 +576,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +588,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -628,11 +636,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,8 +1275,8 @@
       <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>59</v>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1307,8 +1316,8 @@
       <c r="F9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>59</v>
+      <c r="H9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I9">
         <v>0</v>
